--- a/Barometer VS Project/Barometer_ASP_NET/Barometer_ASP_NET/Content/ExcelTemplates/StudentTemplate.xlsx
+++ b/Barometer VS Project/Barometer_ASP_NET/Barometer_ASP_NET/Content/ExcelTemplates/StudentTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Dropbox\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Leaping-Cliff\Barometer VS Project\Barometer_ASP_NET\Barometer_ASP_NET\Content\ExcelTemplates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Studentnummer</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>Emailadres</t>
+  </si>
+  <si>
+    <t>Groepnaam</t>
   </si>
 </sst>
 </file>
@@ -353,10 +356,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -365,9 +368,10 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="64.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -379,6 +383,9 @@
       </c>
       <c r="D1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Barometer VS Project/Barometer_ASP_NET/Barometer_ASP_NET/Content/ExcelTemplates/StudentTemplate.xlsx
+++ b/Barometer VS Project/Barometer_ASP_NET/Barometer_ASP_NET/Content/ExcelTemplates/StudentTemplate.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Studentnummer</t>
   </si>
@@ -38,15 +38,32 @@
     <t>Emailadres</t>
   </si>
   <si>
-    <t>Groepnaam</t>
+    <t>Groepna(a)m(en)</t>
+  </si>
+  <si>
+    <t>Groepnamen scheiden met een komma</t>
+  </si>
+  <si>
+    <t>vb:  42INSO06b,42INIB06a</t>
+  </si>
+  <si>
+    <t>Achternaam is inclusief tussenvoegsel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,8 +91,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -356,10 +374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -368,10 +386,12 @@
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="64.140625" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="36.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -386,9 +406,21 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>